--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Areg-Erbb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Areg-Erbb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,12 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.035526</v>
+        <v>0.1603315</v>
       </c>
       <c r="H2">
-        <v>3.106578</v>
+        <v>0.320663</v>
       </c>
       <c r="I2">
-        <v>0.4381485279869601</v>
+        <v>0.02885979063392485</v>
       </c>
       <c r="J2">
-        <v>0.4990673546495796</v>
+        <v>0.02167610726010308</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.1605563333333333</v>
+        <v>0.08432099999999999</v>
       </c>
       <c r="N2">
-        <v>0.481669</v>
+        <v>0.168642</v>
       </c>
       <c r="O2">
-        <v>0.01905578313479183</v>
+        <v>0.008155403471034732</v>
       </c>
       <c r="P2">
-        <v>0.02595755287029415</v>
+        <v>0.007703748342576289</v>
       </c>
       <c r="Q2">
-        <v>0.1662602576313333</v>
+        <v>0.0135193124115</v>
       </c>
       <c r="R2">
-        <v>1.496342318682</v>
+        <v>0.05407724964599999</v>
       </c>
       <c r="S2">
-        <v>0.008349263330147778</v>
+        <v>0.0002353632367092464</v>
       </c>
       <c r="T2">
-        <v>0.0129545672441543</v>
+        <v>0.0001669872753785249</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.035526</v>
+        <v>0.1603315</v>
       </c>
       <c r="H3">
-        <v>3.106578</v>
+        <v>0.320663</v>
       </c>
       <c r="I3">
-        <v>0.4381485279869601</v>
+        <v>0.02885979063392485</v>
       </c>
       <c r="J3">
-        <v>0.4990673546495796</v>
+        <v>0.02167610726010308</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5664446666666666</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N3">
-        <v>1.699334</v>
+        <v>0.481669</v>
       </c>
       <c r="O3">
-        <v>0.06722903109309158</v>
+        <v>0.01552877311895348</v>
       </c>
       <c r="P3">
-        <v>0.09157855736883302</v>
+        <v>0.02200315912062463</v>
       </c>
       <c r="Q3">
-        <v>0.5865681798946666</v>
+        <v>0.02574223775783333</v>
       </c>
       <c r="R3">
-        <v>5.279113619052</v>
+        <v>0.154453426547</v>
       </c>
       <c r="S3">
-        <v>0.02945630101142765</v>
+        <v>0.0004481571410147175</v>
       </c>
       <c r="T3">
-        <v>0.04570386836868826</v>
+        <v>0.0004769428371597749</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.035526</v>
+        <v>0.1603315</v>
       </c>
       <c r="H4">
-        <v>3.106578</v>
+        <v>0.320663</v>
       </c>
       <c r="I4">
-        <v>0.4381485279869601</v>
+        <v>0.02885979063392485</v>
       </c>
       <c r="J4">
-        <v>0.4990673546495796</v>
+        <v>0.02167610726010308</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.7207635</v>
+        <v>0.5757656666666666</v>
       </c>
       <c r="N4">
-        <v>13.441527</v>
+        <v>1.727297</v>
       </c>
       <c r="O4">
-        <v>0.797660292168841</v>
+        <v>0.05568721097278211</v>
       </c>
       <c r="P4">
-        <v>0.7243753443962271</v>
+        <v>0.07890478884789671</v>
       </c>
       <c r="Q4">
-        <v>6.959525344101</v>
+        <v>0.09231337298516665</v>
       </c>
       <c r="R4">
-        <v>41.757152064606</v>
+        <v>0.5538802379109999</v>
       </c>
       <c r="S4">
-        <v>0.3494936828474262</v>
+        <v>0.001607121249661694</v>
       </c>
       <c r="T4">
-        <v>0.3615120869012032</v>
+        <v>0.001710348666402794</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.035526</v>
+        <v>0.1603315</v>
       </c>
       <c r="H5">
-        <v>3.106578</v>
+        <v>0.320663</v>
       </c>
       <c r="I5">
-        <v>0.4381485279869601</v>
+        <v>0.02885979063392485</v>
       </c>
       <c r="J5">
-        <v>0.4990673546495796</v>
+        <v>0.02167610726010308</v>
       </c>
       <c r="K5">
         <v>2</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.08863199999999999</v>
+        <v>9.042617</v>
       </c>
       <c r="N5">
-        <v>0.265896</v>
+        <v>18.085234</v>
       </c>
       <c r="O5">
-        <v>0.01051937432637061</v>
+        <v>0.8745886560766319</v>
       </c>
       <c r="P5">
-        <v>0.01432936202661938</v>
+        <v>0.8261529835545378</v>
       </c>
       <c r="Q5">
-        <v>0.09178074043199998</v>
+        <v>1.4498163475355</v>
       </c>
       <c r="R5">
-        <v>0.8260266638879998</v>
+        <v>5.799265390142</v>
       </c>
       <c r="S5">
-        <v>0.004609048376443103</v>
+        <v>0.0252404455051773</v>
       </c>
       <c r="T5">
-        <v>0.007151316800441075</v>
+        <v>0.01790778068478234</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,93 +776,93 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.035526</v>
+        <v>0.1603315</v>
       </c>
       <c r="H6">
-        <v>3.106578</v>
+        <v>0.320663</v>
       </c>
       <c r="I6">
-        <v>0.4381485279869601</v>
+        <v>0.02885979063392485</v>
       </c>
       <c r="J6">
-        <v>0.4990673546495796</v>
+        <v>0.02167610726010308</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.8891996666666667</v>
+        <v>0.07294366666666667</v>
       </c>
       <c r="N6">
-        <v>2.667599</v>
+        <v>0.218831</v>
       </c>
       <c r="O6">
-        <v>0.105535519276905</v>
+        <v>0.007055004474844155</v>
       </c>
       <c r="P6">
-        <v>0.1437591833380263</v>
+        <v>0.009996435962300685</v>
       </c>
       <c r="Q6">
-        <v>0.9207893740246667</v>
+        <v>0.01169516749216667</v>
       </c>
       <c r="R6">
-        <v>8.287104366222</v>
+        <v>0.07017100495299999</v>
       </c>
       <c r="S6">
-        <v>0.04624023242151536</v>
+        <v>0.0002036059520654052</v>
       </c>
       <c r="T6">
-        <v>0.07174551533509271</v>
+        <v>0.0002166838181375814</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.8654725</v>
+        <v>0.1603315</v>
       </c>
       <c r="H7">
-        <v>1.730945</v>
+        <v>0.320663</v>
       </c>
       <c r="I7">
-        <v>0.3661960220102579</v>
+        <v>0.02885979063392485</v>
       </c>
       <c r="J7">
-        <v>0.2780738620417439</v>
+        <v>0.02167610726010308</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1605563333333333</v>
+        <v>0.4030763333333334</v>
       </c>
       <c r="N7">
-        <v>0.481669</v>
+        <v>1.209229</v>
       </c>
       <c r="O7">
-        <v>0.01905578313479183</v>
+        <v>0.03898495188575349</v>
       </c>
       <c r="P7">
-        <v>0.02595755287029415</v>
+        <v>0.05523888417206382</v>
       </c>
       <c r="Q7">
-        <v>0.1389570912008333</v>
+        <v>0.06462583313783334</v>
       </c>
       <c r="R7">
-        <v>0.833742547205</v>
+        <v>0.387754998827</v>
       </c>
       <c r="S7">
-        <v>0.006978151980250929</v>
+        <v>0.001125097549296479</v>
       </c>
       <c r="T7">
-        <v>0.007218116975795448</v>
+        <v>0.001197363978242066</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8654725</v>
+        <v>1.952782333333333</v>
       </c>
       <c r="H8">
-        <v>1.730945</v>
+        <v>5.858347</v>
       </c>
       <c r="I8">
-        <v>0.3661960220102579</v>
+        <v>0.3515022892795692</v>
       </c>
       <c r="J8">
-        <v>0.2780738620417439</v>
+        <v>0.3960112577344536</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.5664446666666666</v>
+        <v>0.08432099999999999</v>
       </c>
       <c r="N8">
-        <v>1.699334</v>
+        <v>0.168642</v>
       </c>
       <c r="O8">
-        <v>0.06722903109309158</v>
+        <v>0.008155403471034732</v>
       </c>
       <c r="P8">
-        <v>0.09157855736883302</v>
+        <v>0.007703748342576289</v>
       </c>
       <c r="Q8">
-        <v>0.4902422817716666</v>
+        <v>0.164660559129</v>
       </c>
       <c r="R8">
-        <v>2.94145369063</v>
+        <v>0.987963354774</v>
       </c>
       <c r="S8">
-        <v>0.02461900374989408</v>
+        <v>0.002866642990067253</v>
       </c>
       <c r="T8">
-        <v>0.0254656031277628</v>
+        <v>0.003050771070413349</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8654725</v>
+        <v>1.952782333333333</v>
       </c>
       <c r="H9">
-        <v>1.730945</v>
+        <v>5.858347</v>
       </c>
       <c r="I9">
-        <v>0.3661960220102579</v>
+        <v>0.3515022892795692</v>
       </c>
       <c r="J9">
-        <v>0.2780738620417439</v>
+        <v>0.3960112577344536</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.7207635</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N9">
-        <v>13.441527</v>
+        <v>0.481669</v>
       </c>
       <c r="O9">
-        <v>0.797660292168841</v>
+        <v>0.01552877311895348</v>
       </c>
       <c r="P9">
-        <v>0.7243753443962271</v>
+        <v>0.02200315912062463</v>
       </c>
       <c r="Q9">
-        <v>5.81663598825375</v>
+        <v>0.3135315712381111</v>
       </c>
       <c r="R9">
-        <v>23.266543953015</v>
+        <v>2.821784141143</v>
       </c>
       <c r="S9">
-        <v>0.2921000259077697</v>
+        <v>0.005458399301015183</v>
       </c>
       <c r="T9">
-        <v>0.2014298495840772</v>
+        <v>0.008713498717489875</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.8654725</v>
+        <v>1.952782333333333</v>
       </c>
       <c r="H10">
-        <v>1.730945</v>
+        <v>5.858347</v>
       </c>
       <c r="I10">
-        <v>0.3661960220102579</v>
+        <v>0.3515022892795692</v>
       </c>
       <c r="J10">
-        <v>0.2780738620417439</v>
+        <v>0.3960112577344536</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.08863199999999999</v>
+        <v>0.5757656666666666</v>
       </c>
       <c r="N10">
-        <v>0.265896</v>
+        <v>1.727297</v>
       </c>
       <c r="O10">
-        <v>0.01051937432637061</v>
+        <v>0.05568721097278211</v>
       </c>
       <c r="P10">
-        <v>0.01432936202661938</v>
+        <v>0.07890478884789671</v>
       </c>
       <c r="Q10">
-        <v>0.07670855861999999</v>
+        <v>1.124345022006555</v>
       </c>
       <c r="R10">
-        <v>0.4602513517199999</v>
+        <v>10.119105198059</v>
       </c>
       <c r="S10">
-        <v>0.003852153032353755</v>
+        <v>0.01957418214052726</v>
       </c>
       <c r="T10">
-        <v>0.003984621039336362</v>
+        <v>0.03124718467292707</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,76 +1086,76 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.952782333333333</v>
+      </c>
+      <c r="H11">
+        <v>5.858347</v>
+      </c>
+      <c r="I11">
+        <v>0.3515022892795692</v>
+      </c>
+      <c r="J11">
+        <v>0.3960112577344536</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.8654725</v>
-      </c>
-      <c r="H11">
-        <v>1.730945</v>
-      </c>
-      <c r="I11">
-        <v>0.3661960220102579</v>
-      </c>
-      <c r="J11">
-        <v>0.2780738620417439</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.8891996666666667</v>
+        <v>9.042617</v>
       </c>
       <c r="N11">
-        <v>2.667599</v>
+        <v>18.085234</v>
       </c>
       <c r="O11">
-        <v>0.105535519276905</v>
+        <v>0.8745886560766319</v>
       </c>
       <c r="P11">
-        <v>0.1437591833380263</v>
+        <v>0.8261529835545378</v>
       </c>
       <c r="Q11">
-        <v>0.7695778585091667</v>
+        <v>17.65826272469967</v>
       </c>
       <c r="R11">
-        <v>4.617467151055</v>
+        <v>105.949576348198</v>
       </c>
       <c r="S11">
-        <v>0.03864668733998949</v>
+        <v>0.3074199147888779</v>
       </c>
       <c r="T11">
-        <v>0.03997567131477209</v>
+        <v>0.3271658820985039</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
       <c r="E12">
         <v>3</v>
       </c>
@@ -1160,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4624146666666666</v>
+        <v>1.952782333333333</v>
       </c>
       <c r="H12">
-        <v>1.387244</v>
+        <v>5.858347</v>
       </c>
       <c r="I12">
-        <v>0.195655450002782</v>
+        <v>0.3515022892795692</v>
       </c>
       <c r="J12">
-        <v>0.2228587833086765</v>
+        <v>0.3960112577344536</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1605563333333333</v>
+        <v>0.07294366666666667</v>
       </c>
       <c r="N12">
-        <v>0.481669</v>
+        <v>0.218831</v>
       </c>
       <c r="O12">
-        <v>0.01905578313479183</v>
+        <v>0.007055004474844155</v>
       </c>
       <c r="P12">
-        <v>0.02595755287029415</v>
+        <v>0.009996435962300685</v>
       </c>
       <c r="Q12">
-        <v>0.07424360335955554</v>
+        <v>0.1424431035952222</v>
       </c>
       <c r="R12">
-        <v>0.6681924302359999</v>
+        <v>1.281987932357</v>
       </c>
       <c r="S12">
-        <v>0.003728367824393118</v>
+        <v>0.002479850223785325</v>
       </c>
       <c r="T12">
-        <v>0.005784868650344396</v>
+        <v>0.003958701178292617</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1222,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4624146666666666</v>
+        <v>1.952782333333333</v>
       </c>
       <c r="H13">
-        <v>1.387244</v>
+        <v>5.858347</v>
       </c>
       <c r="I13">
-        <v>0.195655450002782</v>
+        <v>0.3515022892795692</v>
       </c>
       <c r="J13">
-        <v>0.2228587833086765</v>
+        <v>0.3960112577344536</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5664446666666666</v>
+        <v>0.4030763333333334</v>
       </c>
       <c r="N13">
-        <v>1.699334</v>
+        <v>1.209229</v>
       </c>
       <c r="O13">
-        <v>0.06722903109309158</v>
+        <v>0.03898495188575349</v>
       </c>
       <c r="P13">
-        <v>0.09157855736883302</v>
+        <v>0.05523888417206382</v>
       </c>
       <c r="Q13">
-        <v>0.2619323217217777</v>
+        <v>0.7871203427181112</v>
       </c>
       <c r="R13">
-        <v>2.357390895496</v>
+        <v>7.084083084463001</v>
       </c>
       <c r="S13">
-        <v>0.01315372633176986</v>
+        <v>0.01370329983529621</v>
       </c>
       <c r="T13">
-        <v>0.02040908587238196</v>
+        <v>0.0218752199968268</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4624146666666666</v>
+        <v>1.7128805</v>
       </c>
       <c r="H14">
-        <v>1.387244</v>
+        <v>3.425761</v>
       </c>
       <c r="I14">
-        <v>0.195655450002782</v>
+        <v>0.3083197787766753</v>
       </c>
       <c r="J14">
-        <v>0.2228587833086765</v>
+        <v>0.2315738419570639</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>6.7207635</v>
+        <v>0.08432099999999999</v>
       </c>
       <c r="N14">
-        <v>13.441527</v>
+        <v>0.168642</v>
       </c>
       <c r="O14">
-        <v>0.797660292168841</v>
+        <v>0.008155403471034732</v>
       </c>
       <c r="P14">
-        <v>0.7243753443962271</v>
+        <v>0.007703748342576289</v>
       </c>
       <c r="Q14">
-        <v>3.107779613598</v>
+        <v>0.1444317966405</v>
       </c>
       <c r="R14">
-        <v>18.646677681588</v>
+        <v>0.577727186562</v>
       </c>
       <c r="S14">
-        <v>0.1560665834136452</v>
+        <v>0.002514472194023958</v>
       </c>
       <c r="T14">
-        <v>0.1614334079109467</v>
+        <v>0.001783986601160755</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4624146666666666</v>
+        <v>1.7128805</v>
       </c>
       <c r="H15">
-        <v>1.387244</v>
+        <v>3.425761</v>
       </c>
       <c r="I15">
-        <v>0.195655450002782</v>
+        <v>0.3083197787766753</v>
       </c>
       <c r="J15">
-        <v>0.2228587833086765</v>
+        <v>0.2315738419570639</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.08863199999999999</v>
+        <v>0.1605563333333333</v>
       </c>
       <c r="N15">
-        <v>0.265896</v>
+        <v>0.481669</v>
       </c>
       <c r="O15">
-        <v>0.01051937432637061</v>
+        <v>0.01552877311895348</v>
       </c>
       <c r="P15">
-        <v>0.01432936202661938</v>
+        <v>0.02200315912062463</v>
       </c>
       <c r="Q15">
-        <v>0.04098473673599999</v>
+        <v>0.2750138125181666</v>
       </c>
       <c r="R15">
-        <v>0.3688626306239999</v>
+        <v>1.650082875109</v>
       </c>
       <c r="S15">
-        <v>0.002058172917573754</v>
+        <v>0.004787827892708918</v>
       </c>
       <c r="T15">
-        <v>0.003193424186841946</v>
+        <v>0.005095356092755658</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1396,991 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.7128805</v>
+      </c>
+      <c r="H16">
+        <v>3.425761</v>
+      </c>
+      <c r="I16">
+        <v>0.3083197787766753</v>
+      </c>
+      <c r="J16">
+        <v>0.2315738419570639</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.5757656666666666</v>
+      </c>
+      <c r="N16">
+        <v>1.727297</v>
+      </c>
+      <c r="O16">
+        <v>0.05568721097278211</v>
+      </c>
+      <c r="P16">
+        <v>0.07890478884789671</v>
+      </c>
+      <c r="Q16">
+        <v>0.9862177830028332</v>
+      </c>
+      <c r="R16">
+        <v>5.917306698017</v>
+      </c>
+      <c r="S16">
+        <v>0.01716946856781822</v>
+      </c>
+      <c r="T16">
+        <v>0.01827228510231833</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.7128805</v>
+      </c>
+      <c r="H17">
+        <v>3.425761</v>
+      </c>
+      <c r="I17">
+        <v>0.3083197787766753</v>
+      </c>
+      <c r="J17">
+        <v>0.2315738419570639</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.042617</v>
+      </c>
+      <c r="N17">
+        <v>18.085234</v>
+      </c>
+      <c r="O17">
+        <v>0.8745886560766319</v>
+      </c>
+      <c r="P17">
+        <v>0.8261529835545378</v>
+      </c>
+      <c r="Q17">
+        <v>15.4889223282685</v>
+      </c>
+      <c r="R17">
+        <v>61.955689313074</v>
+      </c>
+      <c r="S17">
+        <v>0.2696529809621369</v>
+      </c>
+      <c r="T17">
+        <v>0.1913154204460153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.7128805</v>
+      </c>
+      <c r="H18">
+        <v>3.425761</v>
+      </c>
+      <c r="I18">
+        <v>0.3083197787766753</v>
+      </c>
+      <c r="J18">
+        <v>0.2315738419570639</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.07294366666666667</v>
+      </c>
+      <c r="N18">
+        <v>0.218831</v>
+      </c>
+      <c r="O18">
+        <v>0.007055004474844155</v>
+      </c>
+      <c r="P18">
+        <v>0.009996435962300685</v>
+      </c>
+      <c r="Q18">
+        <v>0.1249437842318333</v>
+      </c>
+      <c r="R18">
+        <v>0.749662705391</v>
+      </c>
+      <c r="S18">
+        <v>0.002175197418952404</v>
+      </c>
+      <c r="T18">
+        <v>0.002314913081667729</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.7128805</v>
+      </c>
+      <c r="H19">
+        <v>3.425761</v>
+      </c>
+      <c r="I19">
+        <v>0.3083197787766753</v>
+      </c>
+      <c r="J19">
+        <v>0.2315738419570639</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.4030763333333334</v>
+      </c>
+      <c r="N19">
+        <v>1.209229</v>
+      </c>
+      <c r="O19">
+        <v>0.03898495188575349</v>
+      </c>
+      <c r="P19">
+        <v>0.05523888417206382</v>
+      </c>
+      <c r="Q19">
+        <v>0.6904215913781667</v>
+      </c>
+      <c r="R19">
+        <v>4.142529548269001</v>
+      </c>
+      <c r="S19">
+        <v>0.01201983174103484</v>
+      </c>
+      <c r="T19">
+        <v>0.01279188063314607</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.414036</v>
+      </c>
+      <c r="H20">
+        <v>1.242108</v>
+      </c>
+      <c r="I20">
+        <v>0.07452679152198856</v>
+      </c>
+      <c r="J20">
+        <v>0.08396374460611955</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.08432099999999999</v>
+      </c>
+      <c r="N20">
+        <v>0.168642</v>
+      </c>
+      <c r="O20">
+        <v>0.008155403471034732</v>
+      </c>
+      <c r="P20">
+        <v>0.007703748342576289</v>
+      </c>
+      <c r="Q20">
+        <v>0.034911929556</v>
+      </c>
+      <c r="R20">
+        <v>0.209471577336</v>
+      </c>
+      <c r="S20">
+        <v>0.0006077960542635074</v>
+      </c>
+      <c r="T20">
+        <v>0.0006468355583458923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.414036</v>
+      </c>
+      <c r="H21">
+        <v>1.242108</v>
+      </c>
+      <c r="I21">
+        <v>0.07452679152198856</v>
+      </c>
+      <c r="J21">
+        <v>0.08396374460611955</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.1605563333333333</v>
+      </c>
+      <c r="N21">
+        <v>0.481669</v>
+      </c>
+      <c r="O21">
+        <v>0.01552877311895348</v>
+      </c>
+      <c r="P21">
+        <v>0.02200315912062463</v>
+      </c>
+      <c r="Q21">
+        <v>0.066476102028</v>
+      </c>
+      <c r="R21">
+        <v>0.598284918252</v>
+      </c>
+      <c r="S21">
+        <v>0.001157309636828506</v>
+      </c>
+      <c r="T21">
+        <v>0.001847467632931937</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.414036</v>
+      </c>
+      <c r="H22">
+        <v>1.242108</v>
+      </c>
+      <c r="I22">
+        <v>0.07452679152198856</v>
+      </c>
+      <c r="J22">
+        <v>0.08396374460611955</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.5757656666666666</v>
+      </c>
+      <c r="N22">
+        <v>1.727297</v>
+      </c>
+      <c r="O22">
+        <v>0.05568721097278211</v>
+      </c>
+      <c r="P22">
+        <v>0.07890478884789671</v>
+      </c>
+      <c r="Q22">
+        <v>0.238387713564</v>
+      </c>
+      <c r="R22">
+        <v>2.145489422076</v>
+      </c>
+      <c r="S22">
+        <v>0.004150189162609526</v>
+      </c>
+      <c r="T22">
+        <v>0.00662514153902459</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>0.4624146666666666</v>
-      </c>
-      <c r="H16">
-        <v>1.387244</v>
-      </c>
-      <c r="I16">
-        <v>0.195655450002782</v>
-      </c>
-      <c r="J16">
-        <v>0.2228587833086765</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.8891996666666667</v>
-      </c>
-      <c r="N16">
-        <v>2.667599</v>
-      </c>
-      <c r="O16">
-        <v>0.105535519276905</v>
-      </c>
-      <c r="P16">
-        <v>0.1437591833380263</v>
-      </c>
-      <c r="Q16">
-        <v>0.4111789674617778</v>
-      </c>
-      <c r="R16">
-        <v>3.700610707156</v>
-      </c>
-      <c r="S16">
-        <v>0.02064859951540012</v>
-      </c>
-      <c r="T16">
-        <v>0.0320379966881615</v>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.414036</v>
+      </c>
+      <c r="H23">
+        <v>1.242108</v>
+      </c>
+      <c r="I23">
+        <v>0.07452679152198856</v>
+      </c>
+      <c r="J23">
+        <v>0.08396374460611955</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.042617</v>
+      </c>
+      <c r="N23">
+        <v>18.085234</v>
+      </c>
+      <c r="O23">
+        <v>0.8745886560766319</v>
+      </c>
+      <c r="P23">
+        <v>0.8261529835545378</v>
+      </c>
+      <c r="Q23">
+        <v>3.743968972212</v>
+      </c>
+      <c r="R23">
+        <v>22.463813833272</v>
+      </c>
+      <c r="S23">
+        <v>0.06518028643891929</v>
+      </c>
+      <c r="T23">
+        <v>0.06936689811675689</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.414036</v>
+      </c>
+      <c r="H24">
+        <v>1.242108</v>
+      </c>
+      <c r="I24">
+        <v>0.07452679152198856</v>
+      </c>
+      <c r="J24">
+        <v>0.08396374460611955</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.07294366666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.218831</v>
+      </c>
+      <c r="O24">
+        <v>0.007055004474844155</v>
+      </c>
+      <c r="P24">
+        <v>0.009996435962300685</v>
+      </c>
+      <c r="Q24">
+        <v>0.030201303972</v>
+      </c>
+      <c r="R24">
+        <v>0.271811735748</v>
+      </c>
+      <c r="S24">
+        <v>0.0005257868476834066</v>
+      </c>
+      <c r="T24">
+        <v>0.0008393381961100436</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.414036</v>
+      </c>
+      <c r="H25">
+        <v>1.242108</v>
+      </c>
+      <c r="I25">
+        <v>0.07452679152198856</v>
+      </c>
+      <c r="J25">
+        <v>0.08396374460611955</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.4030763333333334</v>
+      </c>
+      <c r="N25">
+        <v>1.209229</v>
+      </c>
+      <c r="O25">
+        <v>0.03898495188575349</v>
+      </c>
+      <c r="P25">
+        <v>0.05523888417206382</v>
+      </c>
+      <c r="Q25">
+        <v>0.166888112748</v>
+      </c>
+      <c r="R25">
+        <v>1.501993014732</v>
+      </c>
+      <c r="S25">
+        <v>0.002905423381684305</v>
+      </c>
+      <c r="T25">
+        <v>0.004638063562950186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.315502</v>
+      </c>
+      <c r="H26">
+        <v>3.946506</v>
+      </c>
+      <c r="I26">
+        <v>0.2367913497878421</v>
+      </c>
+      <c r="J26">
+        <v>0.2667750484422599</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>0.5</v>
+      </c>
+      <c r="M26">
+        <v>0.08432099999999999</v>
+      </c>
+      <c r="N26">
+        <v>0.168642</v>
+      </c>
+      <c r="O26">
+        <v>0.008155403471034732</v>
+      </c>
+      <c r="P26">
+        <v>0.007703748342576289</v>
+      </c>
+      <c r="Q26">
+        <v>0.110924444142</v>
+      </c>
+      <c r="R26">
+        <v>0.665546664852</v>
+      </c>
+      <c r="S26">
+        <v>0.001931128995970767</v>
+      </c>
+      <c r="T26">
+        <v>0.002055167837277768</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.315502</v>
+      </c>
+      <c r="H27">
+        <v>3.946506</v>
+      </c>
+      <c r="I27">
+        <v>0.2367913497878421</v>
+      </c>
+      <c r="J27">
+        <v>0.2667750484422599</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.1605563333333333</v>
+      </c>
+      <c r="N27">
+        <v>0.481669</v>
+      </c>
+      <c r="O27">
+        <v>0.01552877311895348</v>
+      </c>
+      <c r="P27">
+        <v>0.02200315912062463</v>
+      </c>
+      <c r="Q27">
+        <v>0.2112121776126667</v>
+      </c>
+      <c r="R27">
+        <v>1.900909598514</v>
+      </c>
+      <c r="S27">
+        <v>0.003677079147386153</v>
+      </c>
+      <c r="T27">
+        <v>0.005869893840287388</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.315502</v>
+      </c>
+      <c r="H28">
+        <v>3.946506</v>
+      </c>
+      <c r="I28">
+        <v>0.2367913497878421</v>
+      </c>
+      <c r="J28">
+        <v>0.2667750484422599</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.5757656666666666</v>
+      </c>
+      <c r="N28">
+        <v>1.727297</v>
+      </c>
+      <c r="O28">
+        <v>0.05568721097278211</v>
+      </c>
+      <c r="P28">
+        <v>0.07890478884789671</v>
+      </c>
+      <c r="Q28">
+        <v>0.7574208860313334</v>
+      </c>
+      <c r="R28">
+        <v>6.816787974282</v>
+      </c>
+      <c r="S28">
+        <v>0.01318624985216541</v>
+      </c>
+      <c r="T28">
+        <v>0.02104982886722393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.315502</v>
+      </c>
+      <c r="H29">
+        <v>3.946506</v>
+      </c>
+      <c r="I29">
+        <v>0.2367913497878421</v>
+      </c>
+      <c r="J29">
+        <v>0.2667750484422599</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>9.042617</v>
+      </c>
+      <c r="N29">
+        <v>18.085234</v>
+      </c>
+      <c r="O29">
+        <v>0.8745886560766319</v>
+      </c>
+      <c r="P29">
+        <v>0.8261529835545378</v>
+      </c>
+      <c r="Q29">
+        <v>11.895580748734</v>
+      </c>
+      <c r="R29">
+        <v>71.373484492404</v>
+      </c>
+      <c r="S29">
+        <v>0.2070950283815205</v>
+      </c>
+      <c r="T29">
+        <v>0.2203970022084793</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.315502</v>
+      </c>
+      <c r="H30">
+        <v>3.946506</v>
+      </c>
+      <c r="I30">
+        <v>0.2367913497878421</v>
+      </c>
+      <c r="J30">
+        <v>0.2667750484422599</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M30">
+        <v>0.07294366666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.218831</v>
+      </c>
+      <c r="O30">
+        <v>0.007055004474844155</v>
+      </c>
+      <c r="P30">
+        <v>0.009996435962300685</v>
+      </c>
+      <c r="Q30">
+        <v>0.09595753938733335</v>
+      </c>
+      <c r="R30">
+        <v>0.863617854486</v>
+      </c>
+      <c r="S30">
+        <v>0.001670564032357614</v>
+      </c>
+      <c r="T30">
+        <v>0.002666799688092714</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.315502</v>
+      </c>
+      <c r="H31">
+        <v>3.946506</v>
+      </c>
+      <c r="I31">
+        <v>0.2367913497878421</v>
+      </c>
+      <c r="J31">
+        <v>0.2667750484422599</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.4030763333333334</v>
+      </c>
+      <c r="N31">
+        <v>1.209229</v>
+      </c>
+      <c r="O31">
+        <v>0.03898495188575349</v>
+      </c>
+      <c r="P31">
+        <v>0.05523888417206382</v>
+      </c>
+      <c r="Q31">
+        <v>0.5302477226526667</v>
+      </c>
+      <c r="R31">
+        <v>4.772229503874001</v>
+      </c>
+      <c r="S31">
+        <v>0.00923129937844165</v>
+      </c>
+      <c r="T31">
+        <v>0.01473635600089871</v>
       </c>
     </row>
   </sheetData>
